--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\Programming\PilotStudy01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67A640E-0934-443C-9337-5A55319BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9179A9E5-B90B-4618-8D45-0EA719C7359B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{8654A8E0-7593-4CA1-8E4F-2574F417770C}"/>
+    <workbookView xWindow="-750" yWindow="1620" windowWidth="21600" windowHeight="13515" xr2:uid="{8654A8E0-7593-4CA1-8E4F-2574F417770C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,13 +141,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -162,8 +186,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,145 +506,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3D5505-B6F7-444F-978E-4A57DA717AC7}">
-  <dimension ref="B2:O13"/>
+  <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N3">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="O3" t="s">
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O4" t="s">
+      <c r="G4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O5" t="s">
+      <c r="G5" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="G6" t="s">
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N6">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="O6" t="s">
+      <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N7">
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="O7" t="s">
+      <c r="G7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="G8" t="s">
+      <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N8">
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="O8" t="s">
+      <c r="G8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="G9" t="s">
+      <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N9" t="s">
+      <c r="F9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
       <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="N11">
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="O11" t="s">
+      <c r="G11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\Programming\PilotStudy01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67A640E-0934-443C-9337-5A55319BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166FB79E-8D48-4E5C-8F98-9EB8853F5E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{8654A8E0-7593-4CA1-8E4F-2574F417770C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>What I have done</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>Run validation</t>
+  </si>
+  <si>
+    <t>Fix amount parameters and calibrate with occurrence only</t>
+  </si>
+  <si>
+    <t>compare the results</t>
   </si>
 </sst>
 </file>
@@ -481,7 +487,7 @@
   <dimension ref="B2:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -615,10 +621,22 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>11</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\Programming\PilotStudy01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166FB79E-8D48-4E5C-8F98-9EB8853F5E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA554C0-A4FC-41A9-B32A-E63FCA13A872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{8654A8E0-7593-4CA1-8E4F-2574F417770C}"/>
+    <workbookView xWindow="2985" yWindow="765" windowWidth="21600" windowHeight="13515" xr2:uid="{8654A8E0-7593-4CA1-8E4F-2574F417770C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,19 +120,19 @@
     <t>Next week action</t>
   </si>
   <si>
-    <t>make WLS OF and run simulation</t>
-  </si>
-  <si>
     <t>plot changes in parameter of each trial</t>
   </si>
   <si>
-    <t>Run validation</t>
-  </si>
-  <si>
     <t>Fix amount parameters and calibrate with occurrence only</t>
   </si>
   <si>
     <t>compare the results</t>
+  </si>
+  <si>
+    <t>implement a different objective function</t>
+  </si>
+  <si>
+    <t>Run calibration and validation</t>
   </si>
 </sst>
 </file>
@@ -487,12 +487,12 @@
   <dimension ref="B2:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -503,7 +503,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -517,7 +517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -528,7 +528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -539,7 +539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -553,7 +553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -567,7 +567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -578,10 +578,10 @@
         <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -592,7 +592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -603,10 +603,10 @@
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -614,10 +614,10 @@
         <v>2</v>
       </c>
       <c r="O11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -625,10 +625,10 @@
         <v>3</v>
       </c>
       <c r="O12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -636,7 +636,7 @@
         <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
